--- a/data_raw/SBBI2016_AppendixB.xlsx
+++ b/data_raw/SBBI2016_AppendixB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="93" r:id="rId1"/>
@@ -65850,8 +65850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DB6653-6512-4055-90A9-A7CA3750A6C4}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M100" sqref="M100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83150,7 +83150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FFCB9F-7734-400A-AEBB-620488DEE349}">
   <dimension ref="A1:O94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/data_raw/SBBI2016_AppendixB.xlsx
+++ b/data_raw/SBBI2016_AppendixB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="9810" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="93" r:id="rId1"/>
@@ -65851,7 +65851,7 @@
   <dimension ref="A1:O94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
